--- a/EQ.xlsx
+++ b/EQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A1677-E318-4331-9EDA-B07DC25D23D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFED9E7-CFEA-4B3F-901E-422226DFF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35970" yWindow="0" windowWidth="35025" windowHeight="20160" xr2:uid="{5A0CBFEB-0925-4761-B2C8-1BA0906697D6}"/>
+    <workbookView xWindow="39010" yWindow="3990" windowWidth="22850" windowHeight="14100" xr2:uid="{5A0CBFEB-0925-4761-B2C8-1BA0906697D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +56,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>deuruxolitinib</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>EQ501</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -231,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,34 +573,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42DF07B-3292-4EBD-8060-11F71A6B248B}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
@@ -604,42 +608,39 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0.85</v>
+        <v>1.69</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="8"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>35.424388</v>
+        <f>35.719317+52.6</f>
+        <v>88.319316999999998</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
         <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="H4" s="8"/>
       <c r="K4" t="s">
@@ -647,33 +648,38 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>30.110729799999998</v>
+        <v>149.25964572999999</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="8"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>11.057+22.242</f>
-        <v>33.298999999999999</v>
+        <v>14.502000000000001</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -681,16 +687,23 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>-3.1882702000000016</v>
+        <v>134.75764572999998</v>
       </c>
     </row>
   </sheetData>
